--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 Live Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD218559-A7DB-4AEE-99F4-BC989727B43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4A3C45-6BD9-4EE0-B0FA-D00CB347F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C320B254-955F-4E12-ACEB-D59F85A35F60}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -399,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EAA2F0-0B51-4EAE-99A9-6379D2AF441B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,18 +413,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 Live Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4A3C45-6BD9-4EE0-B0FA-D00CB347F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4678B-8F97-48C0-AAF1-D9A8C85E0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C320B254-955F-4E12-ACEB-D59F85A35F60}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>abc</t>
   </si>
@@ -46,12 +46,19 @@
   </si>
   <si>
     <t>riyaz</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>LiveTech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,36 +404,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EAA2F0-0B51-4EAE-99A9-6379D2AF441B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="b">
+      <c r="B2" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="C2" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
         <v>3</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>456.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
